--- a/Documents/BOM_RoboticArm.xlsx
+++ b/Documents/BOM_RoboticArm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/589633b4559128e5/Documents/RoboticArm/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="553" documentId="11_F25DC773A252ABDACC104874A1DB62C85ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0297E92C-92D2-4E9B-B814-046A58761730}"/>
+  <xr:revisionPtr revIDLastSave="720" documentId="11_F25DC773A252ABDACC104874A1DB62C85ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86A4562C-40FC-4961-AB0D-63560A41CDBB}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="4950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="4425" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>PART</t>
   </si>
@@ -114,12 +114,6 @@
     <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ETQ-P4M220KVC/6134801</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/analog-devices-inc/ADP2118ACPZ-3-3-R7/2237708</t>
-  </si>
-  <si>
-    <t>ADP2118ACPZ-3.3-R7</t>
-  </si>
-  <si>
     <t>https://export.farnell.com/microchip/mcp2200-i-ss/ic-usb2-0-to-uart-w-gpio-20ssop/dp/1781149?st=usb%20to%20uart</t>
   </si>
   <si>
@@ -148,6 +142,123 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/molex/1054500101/5843890</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0010081121/3072144?s=N4IgTCBcDaIIwAYEA45zHEBdAvkA</t>
+  </si>
+  <si>
+    <t>S4B-XH-A-1(LF)(SN)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/jst-sales-america-inc/S4B-XH-A-1-LF-SN/9961923</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/jst-sales-america-inc/XHP-4/683353</t>
+  </si>
+  <si>
+    <t>SXH-002T-P0.6</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/jst-sales-america-inc/SXH-002T-P0-6/1651063</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/1718560003/4423110</t>
+  </si>
+  <si>
+    <t>XHP-4</t>
+  </si>
+  <si>
+    <t>LM2678SX-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/LM2678SX-3-3-NOPB/366920</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cui-devices/DS04-254-2-03BK-SMT/11310920</t>
+  </si>
+  <si>
+    <t>DS04-254-2-03BK-SMT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/CC0805ZRY5V9BB104/2103099</t>
+  </si>
+  <si>
+    <t>CC0805ZRY5V9BB104</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/taiyo-yuden/LMK212BJ106MG-T/1171629</t>
+  </si>
+  <si>
+    <t>LMK212BJ106MG-T</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C0805C474K5RECAUTO/8646710</t>
+  </si>
+  <si>
+    <t>C0805C474K5RECAUTO</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/865080449011/5728034</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/865080442003/5728026</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C0805C103K1RAC7210/8572452</t>
+  </si>
+  <si>
+    <t>C0805C103K1RAC7210</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/865080645009/5728049</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/ESR10EZPJ102/1762748</t>
+  </si>
+  <si>
+    <t>ESR10EZPJ102</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0805JT5K10/1757930</t>
+  </si>
+  <si>
+    <t>RMCF0805JT5K10</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/CRCW080510K0FKEAC/7928398</t>
+  </si>
+  <si>
+    <t>CRCW080510K0FKEAC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RNCF0805DTE470R/6241768</t>
+  </si>
+  <si>
+    <t>RNCF0805DTE470R</t>
+  </si>
+  <si>
+    <t>09200-71-BDGB00</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/metz-connect-usa-inc/09200-71-BDGB00/13536314</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0805FT2K00/1760249</t>
+  </si>
+  <si>
+    <t>RMCF0805FT2K00</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/CRCW08053K90FKTA/1222880</t>
+  </si>
+  <si>
+    <t>CRCW08053K90FKTA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cui-devices/DS04-254-2-04BK-SMT/11310827</t>
+  </si>
+  <si>
+    <t>DS04-254-2-04BK-SMT</t>
   </si>
 </sst>
 </file>
@@ -348,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,6 +521,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -691,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +930,7 @@
       <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3"/>
@@ -830,19 +950,19 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B5" s="6">
         <v>2</v>
       </c>
       <c r="C5" s="17">
-        <v>10.94</v>
+        <v>10.95</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1059,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1078,7 +1198,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="6">
         <v>2</v>
@@ -1087,10 +1207,10 @@
         <v>5.94</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1109,7 +1229,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6">
         <v>2</v>
@@ -1121,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1140,7 +1260,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="6">
         <v>20</v>
@@ -1152,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1170,43 +1290,51 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
+      <c r="A16" s="12">
+        <v>10081121</v>
+      </c>
+      <c r="B16" s="6">
+        <v>10</v>
+      </c>
+      <c r="C16" s="17">
+        <v>14.66</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>36</v>
+      <c r="A17" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B17" s="6">
         <v>100</v>
       </c>
       <c r="C17" s="17">
-        <v>1.47</v>
+        <v>15.28</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1224,11 +1352,21 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="6">
+        <v>100</v>
+      </c>
+      <c r="C18" s="17">
+        <v>5.12</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1245,11 +1383,21 @@
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="6">
+        <v>500</v>
+      </c>
+      <c r="C19" s="17">
+        <v>11.62</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1266,11 +1414,21 @@
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="12">
+        <v>1718560003</v>
+      </c>
+      <c r="B20" s="6">
+        <v>50</v>
+      </c>
+      <c r="C20" s="17">
+        <v>13.65</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1287,11 +1445,21 @@
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="6">
+        <v>10</v>
+      </c>
+      <c r="C21" s="17">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1308,11 +1476,21 @@
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="6">
+        <v>50</v>
+      </c>
+      <c r="C22" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1329,345 +1507,492 @@
       <c r="S22" s="3"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
+      <c r="A23" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10</v>
+      </c>
+      <c r="C23" s="17">
+        <v>4.95</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
+      <c r="A25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="6">
+        <v>100</v>
+      </c>
+      <c r="C25" s="17">
+        <v>1.47</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="23">
-        <f>C2+C3+C4+C5+C6+C10+C17+C18+C19+C20+C21+C22</f>
-        <v>136.38</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
+      <c r="A26" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="6">
+        <v>10</v>
+      </c>
+      <c r="C26" s="17">
+        <v>1.24</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
+      <c r="A27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="6">
+        <v>10</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0.59</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
+      <c r="A28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="6">
+        <v>10</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1.56</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
+      <c r="A29" s="12">
+        <v>865080449011</v>
+      </c>
+      <c r="B29" s="6">
+        <v>10</v>
+      </c>
+      <c r="C29" s="17">
+        <v>3.95</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
+      <c r="A30" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="6">
+        <v>10</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.52</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
+      <c r="A31" s="12">
+        <v>865080645009</v>
+      </c>
+      <c r="B31" s="6">
+        <v>10</v>
+      </c>
+      <c r="C31" s="17">
+        <v>2.61</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
+      <c r="A32" s="12">
+        <v>865080442003</v>
+      </c>
+      <c r="B32" s="6">
+        <v>20</v>
+      </c>
+      <c r="C32" s="17">
+        <v>3.2</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
+      <c r="A33" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="28">
+        <v>10</v>
+      </c>
+      <c r="C33" s="29">
+        <v>0.69</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
+      <c r="A34" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="28">
+        <v>10</v>
+      </c>
+      <c r="C34" s="29">
+        <v>0.17</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
+      <c r="A35" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="28">
+        <v>10</v>
+      </c>
+      <c r="C35" s="29">
+        <v>0.92</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
+      <c r="A36" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="28">
+        <v>10</v>
+      </c>
+      <c r="C36" s="29">
+        <v>0.53</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
+      <c r="A37" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="28">
+        <v>100</v>
+      </c>
+      <c r="C37" s="29">
+        <v>0.92</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
+      <c r="A38" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="28">
+        <v>20</v>
+      </c>
+      <c r="C38" s="29">
+        <v>2.13</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
@@ -1734,8 +2059,13 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
+      <c r="B42" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="23">
+        <f>C2+C3+C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C25+C21+C26+C27+C28+C29+C30+C31+C32+C33+C34+C35++++C36+C37+C38+C22+C23</f>
+        <v>243.66999999999993</v>
+      </c>
       <c r="D42" s="20"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
@@ -1817,7 +2147,7 @@
       <c r="S45" s="18"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -1905,7 +2235,7 @@
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
-      <c r="E50" s="18"/>
+      <c r="E50" s="19"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
@@ -1943,10 +2273,10 @@
       <c r="S51" s="18"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -1957,17 +2287,17 @@
       <c r="L52" s="18"/>
       <c r="M52" s="24"/>
       <c r="N52" s="18"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
-      <c r="S52" s="26"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -1978,17 +2308,17 @@
       <c r="L53" s="18"/>
       <c r="M53" s="24"/>
       <c r="N53" s="18"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="26"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -1997,69 +2327,408 @@
       <c r="J54" s="18"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="25"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="26"/>
+      <c r="S68" s="26"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="26"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="25"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{0224849B-878D-4D4C-9006-6BFA495A5106}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{E3CF4022-77E6-4CEA-BC30-43E41929B098}"/>
+    <hyperlink ref="E18" r:id="rId2" xr:uid="{04EA26E8-4597-4262-B5D9-9637E76B0D18}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{FDF2DE72-9E92-4B71-8D4A-48DA49B99FC2}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{ABC30398-BDED-4A74-9D82-9BCA6183B2B8}"/>
+    <hyperlink ref="E22" r:id="rId5" xr:uid="{5C65C47B-39A1-4CAF-9311-8377716EF1CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Documents/BOM_RoboticArm.xlsx
+++ b/Documents/BOM_RoboticArm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/589633b4559128e5/Documents/RoboticArm/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="720" documentId="11_F25DC773A252ABDACC104874A1DB62C85ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86A4562C-40FC-4961-AB0D-63560A41CDBB}"/>
+  <xr:revisionPtr revIDLastSave="723" documentId="11_F25DC773A252ABDACC104874A1DB62C85ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{805B41FA-59FF-441E-B79E-A920787D505B}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="4425" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7245" yWindow="5175" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,7 +505,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,13 +1808,13 @@
       <c r="S32" s="3"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="27">
         <v>10</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="28">
         <v>0.69</v>
       </c>
       <c r="D33" s="9" t="s">
@@ -1840,13 +1839,13 @@
       <c r="S33" s="3"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="27">
         <v>10</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="28">
         <v>0.17</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -1871,13 +1870,13 @@
       <c r="S34" s="3"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="27">
         <v>10</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="28">
         <v>0.92</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -1902,13 +1901,13 @@
       <c r="S35" s="3"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="27">
         <v>10</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="28">
         <v>0.53</v>
       </c>
       <c r="D36" s="9" t="s">
@@ -1933,13 +1932,13 @@
       <c r="S36" s="3"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="27">
         <v>100</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="28">
         <v>0.92</v>
       </c>
       <c r="D37" s="9" t="s">
@@ -1964,13 +1963,13 @@
       <c r="S37" s="3"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="27">
         <v>20</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="28">
         <v>2.13</v>
       </c>
       <c r="D38" s="9" t="s">
@@ -1995,10 +1994,10 @@
       <c r="S38" s="3"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -2007,7 +2006,7 @@
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
-      <c r="M39" s="24"/>
+      <c r="M39" s="23"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
@@ -2016,10 +2015,10 @@
       <c r="S39" s="18"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -2028,7 +2027,7 @@
       <c r="J40" s="18"/>
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
-      <c r="M40" s="24"/>
+      <c r="M40" s="23"/>
       <c r="N40" s="18"/>
       <c r="O40" s="18"/>
       <c r="P40" s="18"/>
@@ -2037,10 +2036,10 @@
       <c r="S40" s="18"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -2049,7 +2048,7 @@
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
-      <c r="M41" s="24"/>
+      <c r="M41" s="23"/>
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
       <c r="P41" s="18"/>
@@ -2058,15 +2057,15 @@
       <c r="S41" s="18"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="19"/>
+      <c r="B42" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="22">
         <f>C2+C3+C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C25+C21+C26+C27+C28+C29+C30+C31+C32+C33+C34+C35++++C36+C37+C38+C22+C23</f>
         <v>243.66999999999993</v>
       </c>
-      <c r="D42" s="20"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -2075,7 +2074,7 @@
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
-      <c r="M42" s="24"/>
+      <c r="M42" s="23"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
       <c r="P42" s="18"/>
@@ -2084,10 +2083,10 @@
       <c r="S42" s="18"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
@@ -2096,7 +2095,7 @@
       <c r="J43" s="18"/>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
-      <c r="M43" s="24"/>
+      <c r="M43" s="23"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
       <c r="P43" s="18"/>
@@ -2105,10 +2104,10 @@
       <c r="S43" s="18"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
@@ -2117,7 +2116,7 @@
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
-      <c r="M44" s="24"/>
+      <c r="M44" s="23"/>
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
       <c r="P44" s="18"/>
@@ -2126,10 +2125,10 @@
       <c r="S44" s="18"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -2138,7 +2137,7 @@
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
-      <c r="M45" s="24"/>
+      <c r="M45" s="23"/>
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
       <c r="P45" s="18"/>
@@ -2147,10 +2146,10 @@
       <c r="S45" s="18"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -2159,7 +2158,7 @@
       <c r="J46" s="18"/>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
-      <c r="M46" s="24"/>
+      <c r="M46" s="23"/>
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
       <c r="P46" s="18"/>
@@ -2168,10 +2167,10 @@
       <c r="S46" s="18"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -2180,7 +2179,7 @@
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
-      <c r="M47" s="24"/>
+      <c r="M47" s="23"/>
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
       <c r="P47" s="18"/>
@@ -2189,10 +2188,10 @@
       <c r="S47" s="18"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -2201,7 +2200,7 @@
       <c r="J48" s="18"/>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
-      <c r="M48" s="24"/>
+      <c r="M48" s="23"/>
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
@@ -2210,10 +2209,10 @@
       <c r="S48" s="18"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -2222,7 +2221,7 @@
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
-      <c r="M49" s="24"/>
+      <c r="M49" s="23"/>
       <c r="N49" s="18"/>
       <c r="O49" s="18"/>
       <c r="P49" s="18"/>
@@ -2231,11 +2230,11 @@
       <c r="S49" s="18"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="19"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="18"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
@@ -2243,7 +2242,7 @@
       <c r="J50" s="18"/>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
-      <c r="M50" s="24"/>
+      <c r="M50" s="23"/>
       <c r="N50" s="18"/>
       <c r="O50" s="18"/>
       <c r="P50" s="18"/>
@@ -2252,10 +2251,10 @@
       <c r="S50" s="18"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -2264,7 +2263,7 @@
       <c r="J51" s="18"/>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
-      <c r="M51" s="24"/>
+      <c r="M51" s="23"/>
       <c r="N51" s="18"/>
       <c r="O51" s="18"/>
       <c r="P51" s="18"/>
@@ -2274,9 +2273,9 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -2285,7 +2284,7 @@
       <c r="J52" s="18"/>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
-      <c r="M52" s="24"/>
+      <c r="M52" s="23"/>
       <c r="N52" s="18"/>
       <c r="O52" s="18"/>
       <c r="P52" s="18"/>
@@ -2294,10 +2293,10 @@
       <c r="S52" s="18"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -2306,7 +2305,7 @@
       <c r="J53" s="18"/>
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
-      <c r="M53" s="24"/>
+      <c r="M53" s="23"/>
       <c r="N53" s="18"/>
       <c r="O53" s="18"/>
       <c r="P53" s="18"/>
@@ -2315,10 +2314,10 @@
       <c r="S53" s="18"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -2327,7 +2326,7 @@
       <c r="J54" s="18"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
-      <c r="M54" s="24"/>
+      <c r="M54" s="23"/>
       <c r="N54" s="18"/>
       <c r="O54" s="18"/>
       <c r="P54" s="18"/>
@@ -2336,10 +2335,10 @@
       <c r="S54" s="18"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -2348,7 +2347,7 @@
       <c r="J55" s="18"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
-      <c r="M55" s="24"/>
+      <c r="M55" s="23"/>
       <c r="N55" s="18"/>
       <c r="O55" s="18"/>
       <c r="P55" s="18"/>
@@ -2357,10 +2356,10 @@
       <c r="S55" s="18"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -2369,7 +2368,7 @@
       <c r="J56" s="18"/>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
-      <c r="M56" s="24"/>
+      <c r="M56" s="23"/>
       <c r="N56" s="18"/>
       <c r="O56" s="18"/>
       <c r="P56" s="18"/>
@@ -2378,10 +2377,10 @@
       <c r="S56" s="18"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -2390,7 +2389,7 @@
       <c r="J57" s="18"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
-      <c r="M57" s="24"/>
+      <c r="M57" s="23"/>
       <c r="N57" s="18"/>
       <c r="O57" s="18"/>
       <c r="P57" s="18"/>
@@ -2399,10 +2398,10 @@
       <c r="S57" s="18"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -2411,19 +2410,19 @@
       <c r="J58" s="18"/>
       <c r="K58" s="18"/>
       <c r="L58" s="18"/>
-      <c r="M58" s="24"/>
+      <c r="M58" s="23"/>
       <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -2432,19 +2431,19 @@
       <c r="J59" s="18"/>
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
-      <c r="M59" s="24"/>
+      <c r="M59" s="23"/>
       <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -2453,272 +2452,62 @@
       <c r="J60" s="18"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="24"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="26"/>
-      <c r="Q68" s="26"/>
-      <c r="R68" s="26"/>
-      <c r="S68" s="26"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="26"/>
-      <c r="S69" s="26"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="25"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Documents/BOM_RoboticArm.xlsx
+++ b/Documents/BOM_RoboticArm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/589633b4559128e5/Documents/RoboticArm/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="723" documentId="11_F25DC773A252ABDACC104874A1DB62C85ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{805B41FA-59FF-441E-B79E-A920787D505B}"/>
+  <xr:revisionPtr revIDLastSave="725" documentId="11_F25DC773A252ABDACC104874A1DB62C85ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{585E9C1E-6042-4E05-9F5F-150A1F241BC0}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="5175" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>NP36P06SLG-E1-AY</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/renesas-electronics-america-inc/NP36P06SLG-E1-AY/2764260</t>
-  </si>
-  <si>
     <t>ATP106-TL-H</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t>DS04-254-2-04BK-SMT</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/renesas-electronics-america-inc/NP36P06SLG-E1-AY/2764260?s=N4IgTCBcDaIHIAUDMA2BAGFBlAMgcQFoBRARgIEEBNEAXQF8g</t>
   </si>
 </sst>
 </file>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +949,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="6">
         <v>2</v>
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
@@ -1023,7 +1023,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1116,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -1147,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1178,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6">
         <v>2</v>
@@ -1206,10 +1206,10 @@
         <v>5.94</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6">
         <v>2</v>
@@ -1240,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6">
         <v>20</v>
@@ -1271,7 +1271,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1302,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="6">
         <v>100</v>
@@ -1333,7 +1333,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="6">
         <v>100</v>
@@ -1364,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="6">
         <v>500</v>
@@ -1395,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1426,7 +1426,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="6">
         <v>10</v>
@@ -1457,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="6">
         <v>50</v>
@@ -1488,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="6">
         <v>10</v>
@@ -1519,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="6">
         <v>100</v>
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="6">
         <v>10</v>
@@ -1604,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="6">
         <v>10</v>
@@ -1635,7 +1635,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="6">
         <v>10</v>
@@ -1666,7 +1666,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1697,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="6">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1759,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1790,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="27">
         <v>10</v>
@@ -1821,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="27">
         <v>10</v>
@@ -1852,7 +1852,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="27">
         <v>10</v>
@@ -1883,7 +1883,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="27">
         <v>10</v>
@@ -1914,7 +1914,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="27">
         <v>100</v>
@@ -1945,7 +1945,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="27">
         <v>20</v>
@@ -1976,7 +1976,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
